--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>135.7046583333333</v>
+        <v>292.391276</v>
       </c>
       <c r="H2">
-        <v>407.113975</v>
+        <v>877.173828</v>
       </c>
       <c r="I2">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912879</v>
       </c>
       <c r="J2">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912878</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>13427.53137362263</v>
+        <v>49153.84692213301</v>
       </c>
       <c r="R2">
-        <v>120847.7823626037</v>
+        <v>442384.6222991971</v>
       </c>
       <c r="S2">
-        <v>0.06088115972090017</v>
+        <v>0.1356824784950244</v>
       </c>
       <c r="T2">
-        <v>0.06088115972090019</v>
+        <v>0.1356824784950244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>135.7046583333333</v>
+        <v>292.391276</v>
       </c>
       <c r="H3">
-        <v>407.113975</v>
+        <v>877.173828</v>
       </c>
       <c r="I3">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912879</v>
       </c>
       <c r="J3">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912878</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>22120.70551734781</v>
+        <v>47661.60124253338</v>
       </c>
       <c r="R3">
-        <v>199086.3496561303</v>
+        <v>428954.4111828004</v>
       </c>
       <c r="S3">
-        <v>0.1002964855018851</v>
+        <v>0.1315633381833349</v>
       </c>
       <c r="T3">
-        <v>0.1002964855018851</v>
+        <v>0.1315633381833349</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>135.7046583333333</v>
+        <v>292.391276</v>
       </c>
       <c r="H4">
-        <v>407.113975</v>
+        <v>877.173828</v>
       </c>
       <c r="I4">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912879</v>
       </c>
       <c r="J4">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912878</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>19578.49057844447</v>
+        <v>48535.06004444428</v>
       </c>
       <c r="R4">
-        <v>176206.4152060002</v>
+        <v>436815.5403999985</v>
       </c>
       <c r="S4">
-        <v>0.088769944290872</v>
+        <v>0.1339744018645623</v>
       </c>
       <c r="T4">
-        <v>0.08876994429087204</v>
+        <v>0.1339744018645623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>135.7046583333333</v>
+        <v>292.391276</v>
       </c>
       <c r="H5">
-        <v>407.113975</v>
+        <v>877.173828</v>
       </c>
       <c r="I5">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912879</v>
       </c>
       <c r="J5">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912878</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>8874.556311530225</v>
+        <v>19364.11935703635</v>
       </c>
       <c r="R5">
-        <v>79871.006803772</v>
+        <v>174277.0742133271</v>
       </c>
       <c r="S5">
-        <v>0.04023772242422456</v>
+        <v>0.05345200574836627</v>
       </c>
       <c r="T5">
-        <v>0.04023772242422458</v>
+        <v>0.05345200574836626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>226.082006</v>
       </c>
       <c r="H6">
-        <v>678.2460179999999</v>
+        <v>678.246018</v>
       </c>
       <c r="I6">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="J6">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>22370.07384904834</v>
+        <v>38006.60699183363</v>
       </c>
       <c r="R6">
-        <v>201330.6646414351</v>
+        <v>342059.4629265027</v>
       </c>
       <c r="S6">
-        <v>0.1014271351208775</v>
+        <v>0.1049120457246712</v>
       </c>
       <c r="T6">
-        <v>0.1014271351208775</v>
+        <v>0.1049120457246713</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>226.082006</v>
       </c>
       <c r="H7">
-        <v>678.2460179999999</v>
+        <v>678.246018</v>
       </c>
       <c r="I7">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="J7">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
-        <v>36852.77675002874</v>
+        <v>36852.77675002875</v>
       </c>
       <c r="R7">
         <v>331674.9907502587</v>
       </c>
       <c r="S7">
-        <v>0.1670925001065078</v>
+        <v>0.101727054991014</v>
       </c>
       <c r="T7">
-        <v>0.1670925001065078</v>
+        <v>0.101727054991014</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>226.082006</v>
       </c>
       <c r="H8">
-        <v>678.2460179999999</v>
+        <v>678.246018</v>
       </c>
       <c r="I8">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="J8">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>32617.48328163011</v>
+        <v>37528.15024542118</v>
       </c>
       <c r="R8">
-        <v>293557.349534671</v>
+        <v>337753.3522087907</v>
       </c>
       <c r="S8">
-        <v>0.1478894484851957</v>
+        <v>0.1035913312481676</v>
       </c>
       <c r="T8">
-        <v>0.1478894484851958</v>
+        <v>0.1035913312481676</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>226.082006</v>
       </c>
       <c r="H9">
-        <v>678.2460179999999</v>
+        <v>678.246018</v>
       </c>
       <c r="I9">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="J9">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>14784.88297978998</v>
+        <v>14972.67294890907</v>
       </c>
       <c r="R9">
-        <v>133063.9468181098</v>
+        <v>134754.0565401817</v>
       </c>
       <c r="S9">
-        <v>0.06703546594690005</v>
+        <v>0.04133001794593276</v>
       </c>
       <c r="T9">
-        <v>0.06703546594690006</v>
+        <v>0.04133001794593276</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>105.7015583333334</v>
+        <v>124.299764</v>
       </c>
       <c r="H10">
-        <v>317.104675</v>
+        <v>372.899292</v>
       </c>
       <c r="I10">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="J10">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>10458.82291877824</v>
+        <v>20896.01186361408</v>
       </c>
       <c r="R10">
-        <v>94129.40626900412</v>
+        <v>188064.1067725267</v>
       </c>
       <c r="S10">
-        <v>0.04742087364335539</v>
+        <v>0.05768058570894777</v>
       </c>
       <c r="T10">
-        <v>0.0474208736433554</v>
+        <v>0.05768058570894778</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>105.7015583333334</v>
+        <v>124.299764</v>
       </c>
       <c r="H11">
-        <v>317.104675</v>
+        <v>372.899292</v>
       </c>
       <c r="I11">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="J11">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>17230.01312801725</v>
+        <v>20261.63662389505</v>
       </c>
       <c r="R11">
-        <v>155070.1181521552</v>
+        <v>182354.7296150555</v>
       </c>
       <c r="S11">
-        <v>0.07812181942100489</v>
+        <v>0.05592947953495275</v>
       </c>
       <c r="T11">
-        <v>0.07812181942100491</v>
+        <v>0.05592947953495275</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>105.7015583333334</v>
+        <v>124.299764</v>
       </c>
       <c r="H12">
-        <v>317.104675</v>
+        <v>372.899292</v>
       </c>
       <c r="I12">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="J12">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>15249.85943277481</v>
+        <v>20632.95660452692</v>
       </c>
       <c r="R12">
-        <v>137248.7348949733</v>
+        <v>185696.6094407423</v>
       </c>
       <c r="S12">
-        <v>0.06914369454923545</v>
+        <v>0.05695445760771008</v>
       </c>
       <c r="T12">
-        <v>0.06914369454923547</v>
+        <v>0.05695445760771008</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>105.7015583333334</v>
+        <v>124.299764</v>
       </c>
       <c r="H13">
-        <v>317.104675</v>
+        <v>372.899292</v>
       </c>
       <c r="I13">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="J13">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>6912.470383599559</v>
+        <v>8231.967448124031</v>
       </c>
       <c r="R13">
-        <v>62212.23345239602</v>
+        <v>74087.70703311628</v>
       </c>
       <c r="S13">
-        <v>0.03134151779504486</v>
+        <v>0.02272322139956245</v>
       </c>
       <c r="T13">
-        <v>0.03134151779504486</v>
+        <v>0.02272322139956245</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1600446666666666</v>
+        <v>0.30841</v>
       </c>
       <c r="H14">
-        <v>0.4801339999999999</v>
+        <v>0.92523</v>
       </c>
       <c r="I14">
-        <v>0.0003422329939962954</v>
+        <v>0.0004795815477534156</v>
       </c>
       <c r="J14">
-        <v>0.0003422329939962955</v>
+        <v>0.0004795815477534155</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>15.83589546033866</v>
+        <v>51.84675184787334</v>
       </c>
       <c r="R14">
-        <v>142.523059143048</v>
+        <v>466.62076663086</v>
       </c>
       <c r="S14">
-        <v>7.180081386652148E-05</v>
+        <v>0.0001431158746085518</v>
       </c>
       <c r="T14">
-        <v>7.18008138665215E-05</v>
+        <v>0.0001431158746085518</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1600446666666666</v>
+        <v>0.30841</v>
       </c>
       <c r="H15">
-        <v>0.4801339999999999</v>
+        <v>0.92523</v>
       </c>
       <c r="I15">
-        <v>0.0003422329939962954</v>
+        <v>0.0004795815477534156</v>
       </c>
       <c r="J15">
-        <v>0.0003422329939962955</v>
+        <v>0.0004795815477534155</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>26.08827865185977</v>
+        <v>50.27275314195667</v>
       </c>
       <c r="R15">
-        <v>234.794507866738</v>
+        <v>452.45477827761</v>
       </c>
       <c r="S15">
-        <v>0.0001182856785251897</v>
+        <v>0.0001387710662377024</v>
       </c>
       <c r="T15">
-        <v>0.0001182856785251897</v>
+        <v>0.0001387710662377024</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1600446666666666</v>
+        <v>0.30841</v>
       </c>
       <c r="H16">
-        <v>0.4801339999999999</v>
+        <v>0.92523</v>
       </c>
       <c r="I16">
-        <v>0.0003422329939962954</v>
+        <v>0.0004795815477534156</v>
       </c>
       <c r="J16">
-        <v>0.0003422329939962955</v>
+        <v>0.0004795815477534155</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>23.09009165158444</v>
+        <v>51.1940645873</v>
       </c>
       <c r="R16">
-        <v>207.81082486426</v>
+        <v>460.7465812857</v>
       </c>
       <c r="S16">
-        <v>0.000104691735114604</v>
+        <v>0.0001413142206029761</v>
       </c>
       <c r="T16">
-        <v>0.0001046917351146041</v>
+        <v>0.0001413142206029761</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1600446666666666</v>
+        <v>0.30841</v>
       </c>
       <c r="H17">
-        <v>0.4801339999999999</v>
+        <v>0.92523</v>
       </c>
       <c r="I17">
-        <v>0.0003422329939962954</v>
+        <v>0.0004795815477534156</v>
       </c>
       <c r="J17">
-        <v>0.0003422329939962955</v>
+        <v>0.0004795815477534155</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>10.46629809276445</v>
+        <v>20.42498713574334</v>
       </c>
       <c r="R17">
-        <v>94.19668283488001</v>
+        <v>183.82488422169</v>
       </c>
       <c r="S17">
-        <v>4.745476648998019E-05</v>
+        <v>5.638038630418523E-05</v>
       </c>
       <c r="T17">
-        <v>4.745476648998021E-05</v>
+        <v>5.638038630418522E-05</v>
       </c>
     </row>
   </sheetData>
